--- a/pubspeak_label_BARU.xlsx
+++ b/pubspeak_label_BARU.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeProject2\SKRIPSI_FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5324A7EC-CD25-403E-A371-E1141578CFAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A0A416-B8A8-404A-94E1-628A74D1D8B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Subject" sheetId="1" r:id="rId1"/>
@@ -408,13 +408,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1127,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451A93F0-5321-4BC5-83A3-65D41AB52E85}">
   <dimension ref="A1:K976"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A929" workbookViewId="0">
-      <selection activeCell="F943" sqref="F943"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1168,29 +1169,29 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="A2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
         <v>19</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <f>D2-C2+1</f>
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>80</v>
       </c>
       <c r="I2" s="1"/>
@@ -1198,245 +1199,245 @@
       <c r="K2" s="1"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>50</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <f t="shared" ref="E3:E85" si="0">D3-C3+1</f>
         <v>31</v>
       </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="F3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="6">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="6">
         <v>51</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="6">
         <v>73</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <f>D4-C4+1</f>
         <v>23</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="F4" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
+      <c r="A5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>74</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="6">
         <v>89</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="F5" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>90</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>116</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <f>D6-C6+1</f>
         <v>27</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="6">
         <v>117</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="6">
         <v>200</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="6">
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
+      <c r="F7" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="A8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
         <v>4</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="6">
         <v>201</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="6">
         <v>229</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <f>D8-C8+1</f>
         <v>29</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3" t="s">
+      <c r="F8" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9">
+      <c r="A9" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
         <v>4</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="6">
         <v>230</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="6">
         <v>243</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="F9" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="6">
+        <v>1</v>
+      </c>
+      <c r="H9" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
+      <c r="A10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
         <v>5</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="6">
         <v>244</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="6">
         <v>269</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="6">
         <f>D10-C10+1</f>
         <v>26</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3" t="s">
+      <c r="F10" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="6">
         <v>270</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="6">
         <v>296</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="F11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="F11" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="6">
+        <v>1</v>
+      </c>
+      <c r="H11" s="6" t="s">
         <v>80</v>
       </c>
     </row>
@@ -26839,7 +26840,7 @@
         <v>5084</v>
       </c>
       <c r="E930">
-        <f>D930-C930+1</f>
+        <f t="shared" ref="E930:E976" si="16">D930-C930+1</f>
         <v>12</v>
       </c>
       <c r="F930" t="s">
@@ -26866,7 +26867,7 @@
         <v>20</v>
       </c>
       <c r="E931">
-        <f>D931-C931+1</f>
+        <f t="shared" si="16"/>
         <v>21</v>
       </c>
       <c r="F931" t="s">
@@ -26893,7 +26894,7 @@
         <v>57</v>
       </c>
       <c r="E932">
-        <f>D932-C932+1</f>
+        <f t="shared" si="16"/>
         <v>37</v>
       </c>
       <c r="F932" t="s">
@@ -26920,7 +26921,7 @@
         <v>71</v>
       </c>
       <c r="E933">
-        <f>D933-C933+1</f>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="F933" t="s">
@@ -26947,7 +26948,7 @@
         <v>128</v>
       </c>
       <c r="E934">
-        <f>D934-C934+1</f>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="F934" t="s">
@@ -26974,7 +26975,7 @@
         <v>170</v>
       </c>
       <c r="E935">
-        <f>D935-C935+1</f>
+        <f t="shared" si="16"/>
         <v>42</v>
       </c>
       <c r="F935" t="s">
@@ -27001,7 +27002,7 @@
         <v>206</v>
       </c>
       <c r="E936">
-        <f>D936-C936+1</f>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="F936" t="s">
@@ -27028,7 +27029,7 @@
         <v>216</v>
       </c>
       <c r="E937">
-        <f>D937-C937+1</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="F937" t="s">
@@ -27055,7 +27056,7 @@
         <v>264</v>
       </c>
       <c r="E938">
-        <f>D938-C938+1</f>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="F938" t="s">
@@ -27082,7 +27083,7 @@
         <v>283</v>
       </c>
       <c r="E939">
-        <f>D939-C939+1</f>
+        <f t="shared" si="16"/>
         <v>19</v>
       </c>
       <c r="F939" t="s">
@@ -27109,7 +27110,7 @@
         <v>345</v>
       </c>
       <c r="E940">
-        <f>D940-C940+1</f>
+        <f t="shared" si="16"/>
         <v>62</v>
       </c>
       <c r="F940" t="s">
@@ -27136,7 +27137,7 @@
         <v>357</v>
       </c>
       <c r="E941">
-        <f>D941-C941+1</f>
+        <f t="shared" si="16"/>
         <v>12</v>
       </c>
       <c r="F941" t="s">
@@ -27163,7 +27164,7 @@
         <v>393</v>
       </c>
       <c r="E942">
-        <f>D942-C942+1</f>
+        <f t="shared" si="16"/>
         <v>36</v>
       </c>
       <c r="F942" t="s">
@@ -27190,7 +27191,7 @@
         <v>398</v>
       </c>
       <c r="E943">
-        <f>D943-C943+1</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="F943" t="s">
@@ -27217,7 +27218,7 @@
         <v>403</v>
       </c>
       <c r="E944">
-        <f>D944-C944+1</f>
+        <f t="shared" si="16"/>
         <v>5</v>
       </c>
       <c r="F944" t="s">
@@ -27244,7 +27245,7 @@
         <v>412</v>
       </c>
       <c r="E945">
-        <f>D945-C945+1</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="F945" t="s">
@@ -27271,7 +27272,7 @@
         <v>426</v>
       </c>
       <c r="E946">
-        <f>D946-C946+1</f>
+        <f t="shared" si="16"/>
         <v>14</v>
       </c>
       <c r="F946" t="s">
@@ -27298,7 +27299,7 @@
         <v>635</v>
       </c>
       <c r="E947">
-        <f>D947-C947+1</f>
+        <f t="shared" si="16"/>
         <v>209</v>
       </c>
       <c r="F947" t="s">
@@ -27325,7 +27326,7 @@
         <v>680</v>
       </c>
       <c r="E948">
-        <f>D948-C948+1</f>
+        <f t="shared" si="16"/>
         <v>45</v>
       </c>
       <c r="F948" t="s">
@@ -27352,7 +27353,7 @@
         <v>689</v>
       </c>
       <c r="E949">
-        <f>D949-C949+1</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="F949" t="s">
@@ -27379,7 +27380,7 @@
         <v>713</v>
       </c>
       <c r="E950">
-        <f>D950-C950+1</f>
+        <f t="shared" si="16"/>
         <v>24</v>
       </c>
       <c r="F950" t="s">
@@ -27406,7 +27407,7 @@
         <v>724</v>
       </c>
       <c r="E951">
-        <f>D951-C951+1</f>
+        <f t="shared" si="16"/>
         <v>11</v>
       </c>
       <c r="F951" t="s">
@@ -27433,7 +27434,7 @@
         <v>763</v>
       </c>
       <c r="E952">
-        <f>D952-C952+1</f>
+        <f t="shared" si="16"/>
         <v>39</v>
       </c>
       <c r="F952" t="s">
@@ -27460,7 +27461,7 @@
         <v>783</v>
       </c>
       <c r="E953">
-        <f>D953-C953+1</f>
+        <f t="shared" si="16"/>
         <v>20</v>
       </c>
       <c r="F953" t="s">
@@ -27487,7 +27488,7 @@
         <v>792</v>
       </c>
       <c r="E954">
-        <f>D954-C954+1</f>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="F954" t="s">
@@ -27514,7 +27515,7 @@
         <v>818</v>
       </c>
       <c r="E955">
-        <f>D955-C955+1</f>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="F955" t="s">
@@ -27541,7 +27542,7 @@
         <v>887</v>
       </c>
       <c r="E956">
-        <f>D956-C956+1</f>
+        <f t="shared" si="16"/>
         <v>69</v>
       </c>
       <c r="F956" t="s">
@@ -27568,7 +27569,7 @@
         <v>947</v>
       </c>
       <c r="E957">
-        <f>D957-C957+1</f>
+        <f t="shared" si="16"/>
         <v>60</v>
       </c>
       <c r="F957" t="s">
@@ -27595,7 +27596,7 @@
         <v>979</v>
       </c>
       <c r="E958">
-        <f>D958-C958+1</f>
+        <f t="shared" si="16"/>
         <v>32</v>
       </c>
       <c r="F958" t="s">
@@ -27622,7 +27623,7 @@
         <v>1012</v>
       </c>
       <c r="E959">
-        <f>D959-C959+1</f>
+        <f t="shared" si="16"/>
         <v>35</v>
       </c>
       <c r="F959" t="s">
@@ -27649,7 +27650,7 @@
         <v>1189</v>
       </c>
       <c r="E960">
-        <f>D960-C960+1</f>
+        <f t="shared" si="16"/>
         <v>177</v>
       </c>
       <c r="F960" t="s">
@@ -27676,7 +27677,7 @@
         <v>1260</v>
       </c>
       <c r="E961">
-        <f>D961-C961+1</f>
+        <f t="shared" si="16"/>
         <v>71</v>
       </c>
       <c r="F961" t="s">
@@ -27703,7 +27704,7 @@
         <v>1421</v>
       </c>
       <c r="E962">
-        <f>D962-C962+1</f>
+        <f t="shared" si="16"/>
         <v>161</v>
       </c>
       <c r="F962" t="s">
@@ -27730,7 +27731,7 @@
         <v>1449</v>
       </c>
       <c r="E963">
-        <f>D963-C963+1</f>
+        <f t="shared" si="16"/>
         <v>28</v>
       </c>
       <c r="F963" t="s">
@@ -27757,7 +27758,7 @@
         <v>1486</v>
       </c>
       <c r="E964">
-        <f>D964-C964+1</f>
+        <f t="shared" si="16"/>
         <v>37</v>
       </c>
       <c r="F964" t="s">
@@ -27784,7 +27785,7 @@
         <v>1508</v>
       </c>
       <c r="E965">
-        <f>D965-C965+1</f>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="F965" t="s">
@@ -27811,7 +27812,7 @@
         <v>1612</v>
       </c>
       <c r="E966">
-        <f>D966-C966+1</f>
+        <f t="shared" si="16"/>
         <v>104</v>
       </c>
       <c r="F966" t="s">
@@ -27838,7 +27839,7 @@
         <v>1780</v>
       </c>
       <c r="E967">
-        <f>D967-C967+1</f>
+        <f t="shared" si="16"/>
         <v>168</v>
       </c>
       <c r="F967" t="s">
@@ -27865,7 +27866,7 @@
         <v>1855</v>
       </c>
       <c r="E968">
-        <f>D968-C968+1</f>
+        <f t="shared" si="16"/>
         <v>75</v>
       </c>
       <c r="F968" t="s">
@@ -27892,7 +27893,7 @@
         <v>1922</v>
       </c>
       <c r="E969">
-        <f>D969-C969+1</f>
+        <f t="shared" si="16"/>
         <v>67</v>
       </c>
       <c r="F969" t="s">
@@ -27919,7 +27920,7 @@
         <v>1972</v>
       </c>
       <c r="E970">
-        <f>D970-C970+1</f>
+        <f t="shared" si="16"/>
         <v>50</v>
       </c>
       <c r="F970" t="s">
@@ -27946,7 +27947,7 @@
         <v>2125</v>
       </c>
       <c r="E971">
-        <f>D971-C971+1</f>
+        <f t="shared" si="16"/>
         <v>153</v>
       </c>
       <c r="F971" t="s">
@@ -27973,7 +27974,7 @@
         <v>2225</v>
       </c>
       <c r="E972">
-        <f>D972-C972+1</f>
+        <f t="shared" si="16"/>
         <v>100</v>
       </c>
       <c r="F972" t="s">
@@ -28000,7 +28001,7 @@
         <v>2305</v>
       </c>
       <c r="E973">
-        <f>D973-C973+1</f>
+        <f t="shared" si="16"/>
         <v>80</v>
       </c>
       <c r="F973" t="s">
@@ -28027,7 +28028,7 @@
         <v>2339</v>
       </c>
       <c r="E974">
-        <f>D974-C974+1</f>
+        <f t="shared" si="16"/>
         <v>34</v>
       </c>
       <c r="F974" t="s">
@@ -28054,7 +28055,7 @@
         <v>2757</v>
       </c>
       <c r="E975">
-        <f>D975-C975+1</f>
+        <f t="shared" si="16"/>
         <v>418</v>
       </c>
       <c r="F975" t="s">
@@ -28081,7 +28082,7 @@
         <v>2773</v>
       </c>
       <c r="E976">
-        <f>D976-C976+1</f>
+        <f t="shared" si="16"/>
         <v>16</v>
       </c>
       <c r="F976" t="s">
